--- a/Data/Variation_csv2.xlsx
+++ b/Data/Variation_csv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliaadelsheim/Documents/Thesis/otteR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA393561-CF24-B644-B4F1-8EE37158AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A8BFD9-8479-7B4B-9BDD-619FE5945E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1420" yWindow="1020" windowWidth="25200" windowHeight="15840" xr2:uid="{BBDAB1C0-849B-9C4B-8551-D97582946570}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="51">
   <si>
     <t>Age</t>
   </si>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +265,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -278,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -292,6 +304,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10797D0-695A-3446-90AF-F5CD3DB7D62D}">
-  <dimension ref="A1:K222"/>
+  <dimension ref="A1:K224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="J172" sqref="J172:J180"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4523,438 +4537,437 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" s="4" t="s">
+      <c r="B112" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="13">
         <v>0</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="13">
         <v>2.4</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="13">
         <v>4</v>
       </c>
-      <c r="I112" s="4" t="s">
+      <c r="I112" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J112" s="4">
+      <c r="J112" s="13">
         <f>(G112/6.7)*0.25</f>
         <v>8.9552238805970144E-2</v>
       </c>
-      <c r="K112" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="K112" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C113" s="4" t="s">
+      <c r="B113" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="13">
         <v>0</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="13">
         <v>7.6</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="13">
         <v>7.2</v>
       </c>
-      <c r="I113" s="4" t="s">
+      <c r="I113" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="13">
         <f>(G113/17.3)*0.25</f>
         <v>0.10982658959537571</v>
       </c>
-      <c r="K113" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="K113" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="B114" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="13">
         <v>0</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G114" s="4">
+      <c r="G114" s="13">
         <v>6.8</v>
       </c>
-      <c r="H114" s="4">
+      <c r="H114" s="13">
         <v>5.9</v>
       </c>
-      <c r="I114" s="4" t="s">
+      <c r="I114" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J114" s="4">
+      <c r="J114" s="13">
         <f>(G114/18.4)*0.25</f>
         <v>9.2391304347826095E-2</v>
       </c>
-      <c r="K114" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="K114" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="B115" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="13">
         <v>0</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="4">
+      <c r="G115" s="13">
         <v>6.9</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="13">
         <v>5.6</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I115" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J115" s="4">
+      <c r="J115" s="13">
         <f>(G115/19.6)*0.25</f>
         <v>8.8010204081632654E-2</v>
       </c>
-      <c r="K115" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="K115" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" s="4" t="s">
+      <c r="B116" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="13">
         <v>0</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G116" s="4">
+      <c r="G116" s="13">
         <v>4.3</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H116" s="13">
         <v>6.3</v>
       </c>
-      <c r="I116" s="4" t="s">
+      <c r="I116" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J116" s="4">
+      <c r="J116" s="13">
         <f>(G116/6.7)*0.25</f>
         <v>0.16044776119402984</v>
       </c>
-      <c r="K116" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="K116" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" s="4" t="s">
+      <c r="B117" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="13">
         <v>0</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G117" s="13">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H117" s="13">
         <v>11.2</v>
       </c>
-      <c r="I117" s="4" t="s">
+      <c r="I117" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J117" s="13">
         <f>(G117/17.3)*0.25</f>
         <v>0.14017341040462425</v>
       </c>
-      <c r="K117" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="K117" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="4" t="s">
+      <c r="B118" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="13">
         <v>0</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="13">
         <v>9.4</v>
       </c>
-      <c r="H118" s="4">
+      <c r="H118" s="13">
         <v>12.6</v>
       </c>
-      <c r="I118" s="4" t="s">
+      <c r="I118" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J118" s="4">
+      <c r="J118" s="13">
         <f>(G118/18.4)*0.25</f>
         <v>0.12771739130434784</v>
       </c>
-      <c r="K118" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="K118" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="4" t="s">
+      <c r="B119" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="13">
         <v>0</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E119" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="13">
         <v>14</v>
       </c>
-      <c r="I119" s="4" t="s">
+      <c r="I119" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J119" s="4">
+      <c r="J119" s="13">
         <f>(G119/19.6)*0.25</f>
         <v>0.11862244897959184</v>
       </c>
-      <c r="K119" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+      <c r="K119" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C120" s="4" t="s">
+      <c r="B120" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="13">
         <v>0</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H120" s="4">
+      <c r="H120" s="13">
         <v>3</v>
       </c>
-      <c r="I120" s="4" t="s">
+      <c r="I120" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J120" s="4">
+      <c r="J120" s="13">
         <f>(G120/18.4)*0.25</f>
         <v>2.9891304347826091E-2</v>
       </c>
-      <c r="K120" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+      <c r="K120" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="4" t="s">
+      <c r="B121" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="13">
         <v>0</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G121" s="4">
+      <c r="G121" s="13">
         <v>3.4</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="13">
         <v>3.7</v>
       </c>
-      <c r="I121" s="4" t="s">
+      <c r="I121" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J121" s="4">
+      <c r="J121" s="13">
         <f>(G121/19.6)*0.25</f>
         <v>4.3367346938775503E-2</v>
       </c>
-      <c r="K121" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="K121" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" s="4" t="s">
+      <c r="B122" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="13">
         <v>0</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H122" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="I122" s="4" t="s">
+      <c r="E122" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" s="13">
+        <v>0</v>
+      </c>
+      <c r="H122" s="13">
+        <v>0</v>
+      </c>
+      <c r="I122" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J122" s="4">
-        <f>1*0.25</f>
-        <v>0.25</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+      <c r="J122" s="13">
+        <v>0</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C123" s="4" t="s">
+      <c r="B123" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="13">
         <v>0</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="4">
-        <v>19.3</v>
-      </c>
-      <c r="H123" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="I123" s="4" t="s">
+      <c r="E123" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" s="13">
+        <v>0</v>
+      </c>
+      <c r="H123" s="13">
+        <v>0</v>
+      </c>
+      <c r="I123" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J123" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="K123" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J123" s="13">
+        <v>0</v>
+      </c>
+      <c r="K123" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>32</v>
       </c>
@@ -4974,15 +4987,16 @@
         <v>14</v>
       </c>
       <c r="G124" s="4">
-        <v>28.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H124" s="4">
-        <v>22.3</v>
+        <v>5.3</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J124" s="4">
+        <f>1*0.25</f>
         <v>0.25</v>
       </c>
       <c r="K124" s="4" t="s">
@@ -5009,10 +5023,10 @@
         <v>14</v>
       </c>
       <c r="G125" s="4">
-        <v>31.1</v>
+        <v>19.3</v>
       </c>
       <c r="H125" s="4">
-        <v>26.1</v>
+        <v>16.3</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>12</v>
@@ -5038,23 +5052,22 @@
         <v>0</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G126" s="4">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="H126" s="4">
-        <v>21.2</v>
+        <v>22.3</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J126" s="4">
-        <f>(G126/91)*0.25</f>
-        <v>8.04945054945055E-2</v>
+        <v>0.25</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>19</v>
@@ -5074,23 +5087,22 @@
         <v>0</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G127" s="4">
-        <v>5</v>
+        <v>31.1</v>
       </c>
       <c r="H127" s="4">
-        <v>8</v>
+        <v>26.1</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J127" s="4">
-        <f>(G127/63.3)*0.25</f>
-        <v>1.9747235387045814E-2</v>
+        <v>0.25</v>
       </c>
       <c r="K127" s="4" t="s">
         <v>19</v>
@@ -5116,17 +5128,17 @@
         <v>13</v>
       </c>
       <c r="G128" s="4">
-        <v>1.4</v>
+        <v>29.3</v>
       </c>
       <c r="H128" s="4">
-        <v>4.2</v>
+        <v>21.2</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J128" s="4">
-        <f>(G128/52.9)*0.25</f>
-        <v>6.6162570888468808E-3</v>
+        <f>(G128/91)*0.25</f>
+        <v>8.04945054945055E-2</v>
       </c>
       <c r="K128" s="4" t="s">
         <v>19</v>
@@ -5145,24 +5157,24 @@
       <c r="D129" s="4">
         <v>0</v>
       </c>
-      <c r="E129" s="12" t="s">
+      <c r="E129" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G129" s="4">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H129" s="4">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="I129" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J129" s="4">
-        <f>(G129/49.3)*0.25</f>
-        <v>8.1135902636916852E-3</v>
+        <f>(G129/63.3)*0.25</f>
+        <v>1.9747235387045814E-2</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>19</v>
@@ -5182,23 +5194,23 @@
         <v>0</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G130" s="4">
-        <v>28.9</v>
+        <v>1.4</v>
       </c>
       <c r="H130" s="4">
-        <v>19.2</v>
+        <v>4.2</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J130" s="4">
-        <f>(G130/91)*0.25</f>
-        <v>7.9395604395604391E-2</v>
+        <f>(G130/52.9)*0.25</f>
+        <v>6.6162570888468808E-3</v>
       </c>
       <c r="K130" s="4" t="s">
         <v>19</v>
@@ -5217,24 +5229,24 @@
       <c r="D131" s="4">
         <v>0</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>42</v>
+      <c r="E131" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G131" s="4">
-        <v>34.700000000000003</v>
+        <v>1.6</v>
       </c>
       <c r="H131" s="4">
-        <v>22.7</v>
+        <v>7.7</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J131" s="4">
-        <f>(G131/63.3)*0.25</f>
-        <v>0.13704581358609796</v>
+        <f>(G131/49.3)*0.25</f>
+        <v>8.1135902636916852E-3</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>19</v>
@@ -5260,17 +5272,17 @@
         <v>13</v>
       </c>
       <c r="G132" s="4">
-        <v>26.9</v>
+        <v>28.9</v>
       </c>
       <c r="H132" s="4">
-        <v>20.8</v>
+        <v>19.2</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J132" s="4">
-        <f>(G132/52.9)*0.25</f>
-        <v>0.1271266540642722</v>
+        <f>(G132/91)*0.25</f>
+        <v>7.9395604395604391E-2</v>
       </c>
       <c r="K132" s="4" t="s">
         <v>19</v>
@@ -5289,24 +5301,24 @@
       <c r="D133" s="4">
         <v>0</v>
       </c>
-      <c r="E133" s="12" t="s">
+      <c r="E133" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G133" s="4">
-        <v>26.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="H133" s="4">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J133" s="4">
-        <f>(G133/49.3)*0.25</f>
-        <v>0.13539553752535496</v>
+        <f>(G133/63.3)*0.25</f>
+        <v>0.13704581358609796</v>
       </c>
       <c r="K133" s="4" t="s">
         <v>19</v>
@@ -5326,23 +5338,23 @@
         <v>0</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G134" s="4">
-        <v>11.6</v>
+        <v>26.9</v>
       </c>
       <c r="H134" s="4">
-        <v>9.3000000000000007</v>
+        <v>20.8</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J134" s="4">
-        <f>(G134/91)*0.25</f>
-        <v>3.1868131868131866E-2</v>
+        <f>(G134/52.9)*0.25</f>
+        <v>0.1271266540642722</v>
       </c>
       <c r="K134" s="4" t="s">
         <v>19</v>
@@ -5361,24 +5373,24 @@
       <c r="D135" s="4">
         <v>0</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>46</v>
+      <c r="E135" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G135" s="4">
-        <v>6.5</v>
+        <v>26.7</v>
       </c>
       <c r="H135" s="4">
-        <v>6.5</v>
+        <v>23.2</v>
       </c>
       <c r="I135" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J135" s="4">
-        <f>(G135/63.3)*0.25</f>
-        <v>2.567140600315956E-2</v>
+        <f>(G135/49.3)*0.25</f>
+        <v>0.13539553752535496</v>
       </c>
       <c r="K135" s="4" t="s">
         <v>19</v>
@@ -5404,17 +5416,17 @@
         <v>13</v>
       </c>
       <c r="G136" s="4">
-        <v>3.2</v>
+        <v>11.6</v>
       </c>
       <c r="H136" s="4">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J136" s="4">
-        <f>(G136/52.9)*0.25</f>
-        <v>1.5122873345935728E-2</v>
+        <f>(G136/91)*0.25</f>
+        <v>3.1868131868131866E-2</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>19</v>
@@ -5433,24 +5445,24 @@
       <c r="D137" s="4">
         <v>0</v>
       </c>
-      <c r="E137" s="12" t="s">
+      <c r="E137" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G137" s="4">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H137" s="4">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J137" s="4">
-        <f>(G137/49.3)*0.25</f>
-        <v>4.5638945233265728E-3</v>
+        <f>(G137/63.3)*0.25</f>
+        <v>2.567140600315956E-2</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>19</v>
@@ -5470,23 +5482,23 @@
         <v>0</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G138" s="4">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H138" s="4">
-        <v>3.7</v>
+        <v>9.4</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J138" s="4">
-        <f>(G138/91)*0.25</f>
-        <v>3.8461538461538459E-3</v>
+        <f>(G138/52.9)*0.25</f>
+        <v>1.5122873345935728E-2</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>19</v>
@@ -5505,24 +5517,24 @@
       <c r="D139" s="4">
         <v>0</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>47</v>
+      <c r="E139" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G139" s="4">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H139" s="4">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J139" s="4">
-        <f>(G139/63.3)*0.25</f>
-        <v>2.2116903633491312E-2</v>
+        <f>(G139/49.3)*0.25</f>
+        <v>4.5638945233265728E-3</v>
       </c>
       <c r="K139" s="4" t="s">
         <v>19</v>
@@ -5548,17 +5560,17 @@
         <v>13</v>
       </c>
       <c r="G140" s="4">
-        <v>13.1</v>
+        <v>1.4</v>
       </c>
       <c r="H140" s="4">
-        <v>12.2</v>
+        <v>3.7</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J140" s="4">
-        <f>(G140/52.9)*0.25</f>
-        <v>6.1909262759924387E-2</v>
+        <f>(G140/91)*0.25</f>
+        <v>3.8461538461538459E-3</v>
       </c>
       <c r="K140" s="4" t="s">
         <v>19</v>
@@ -5577,24 +5589,24 @@
       <c r="D141" s="4">
         <v>0</v>
       </c>
-      <c r="E141" s="12" t="s">
+      <c r="E141" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G141" s="4">
-        <v>13.9</v>
+        <v>5.6</v>
       </c>
       <c r="H141" s="4">
-        <v>9.6</v>
+        <v>6.5</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J141" s="4">
-        <f>(G141/49.3)*0.25</f>
-        <v>7.048681541582151E-2</v>
+        <f>(G141/63.3)*0.25</f>
+        <v>2.2116903633491312E-2</v>
       </c>
       <c r="K141" s="4" t="s">
         <v>19</v>
@@ -5614,29 +5626,29 @@
         <v>0</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G142" s="4">
-        <v>16.8</v>
+        <v>13.1</v>
       </c>
       <c r="H142" s="4">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="I142" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J142" s="4">
-        <f>(G142/91)*0.25</f>
-        <v>4.6153846153846156E-2</v>
+        <f>(G142/52.9)*0.25</f>
+        <v>6.1909262759924387E-2</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>32</v>
       </c>
@@ -5649,30 +5661,30 @@
       <c r="D143" s="4">
         <v>0</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>48</v>
+      <c r="E143" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G143" s="4">
-        <v>8.4</v>
+        <v>13.9</v>
       </c>
       <c r="H143" s="4">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J143" s="4">
-        <f>(G143/63.3)*0.25</f>
-        <v>3.3175355450236969E-2</v>
+        <f>(G143/49.3)*0.25</f>
+        <v>7.048681541582151E-2</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>32</v>
       </c>
@@ -5692,17 +5704,17 @@
         <v>13</v>
       </c>
       <c r="G144" s="4">
-        <v>5.4</v>
+        <v>16.8</v>
       </c>
       <c r="H144" s="4">
-        <v>9.6</v>
+        <v>12.8</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J144" s="4">
-        <f>(G144/52.9)*0.25</f>
-        <v>2.5519848771266541E-2</v>
+        <f>(G144/91)*0.25</f>
+        <v>4.6153846153846156E-2</v>
       </c>
       <c r="K144" s="4" t="s">
         <v>19</v>
@@ -5721,24 +5733,24 @@
       <c r="D145" s="4">
         <v>0</v>
       </c>
-      <c r="E145" s="12" t="s">
+      <c r="E145" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G145" s="4">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="H145" s="4">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J145" s="4">
-        <f>(G145/49.3)*0.25</f>
-        <v>1.7748478701825558E-2</v>
+        <f>(G145/63.3)*0.25</f>
+        <v>3.3175355450236969E-2</v>
       </c>
       <c r="K145" s="4" t="s">
         <v>19</v>
@@ -5758,23 +5770,23 @@
         <v>0</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G146" s="4">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="H146" s="4">
-        <v>4.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J146" s="4">
-        <f>(G146/91)*0.25</f>
-        <v>8.5164835164835175E-3</v>
+        <f>(G146/52.9)*0.25</f>
+        <v>2.5519848771266541E-2</v>
       </c>
       <c r="K146" s="4" t="s">
         <v>19</v>
@@ -5793,14 +5805,14 @@
       <c r="D147" s="4">
         <v>0</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>49</v>
+      <c r="E147" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G147" s="4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H147" s="4">
         <v>4</v>
@@ -5809,8 +5821,8 @@
         <v>12</v>
       </c>
       <c r="J147" s="4">
-        <f>(G147/63.3)*0.25</f>
-        <v>1.2243285939968405E-2</v>
+        <f>(G147/49.3)*0.25</f>
+        <v>1.7748478701825558E-2</v>
       </c>
       <c r="K147" s="4" t="s">
         <v>19</v>
@@ -5836,17 +5848,17 @@
         <v>13</v>
       </c>
       <c r="G148" s="4">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H148" s="4">
-        <v>2.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I148" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J148" s="4">
-        <f>(G148/52.9)*0.25</f>
-        <v>1.3705103969754254E-2</v>
+        <f>(G148/91)*0.25</f>
+        <v>8.5164835164835175E-3</v>
       </c>
       <c r="K148" s="4" t="s">
         <v>19</v>
@@ -5865,98 +5877,98 @@
       <c r="D149" s="4">
         <v>0</v>
       </c>
-      <c r="E149" s="12" t="s">
+      <c r="E149" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G149" s="4">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H149" s="4">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J149" s="4">
-        <f>(G149/49.3)*0.25</f>
+        <f>(G149/63.3)*0.25</f>
+        <v>1.2243285939968405E-2</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="H150" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J150" s="4">
+        <f>(G150/52.9)*0.25</f>
+        <v>1.3705103969754254E-2</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="H151" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J151" s="4">
+        <f>(G151/49.3)*0.25</f>
         <v>1.3691683569979718E-2</v>
       </c>
-      <c r="K149" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H150" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J150" s="2">
-        <f>(G150/0.68)*0.25</f>
-        <v>0.20588235294117649</v>
-      </c>
-      <c r="K150" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" s="2">
-        <v>1.24</v>
-      </c>
-      <c r="H151" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J151" s="2">
-        <f>(G151/1.76)*0.25</f>
-        <v>0.17613636363636365</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5980,17 +5992,17 @@
         <v>16</v>
       </c>
       <c r="G152" s="2">
-        <v>1.1399999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H152" s="2">
-        <v>0.8</v>
+        <v>0.37</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J152" s="2">
-        <f>(G152/1.86)*0.25</f>
-        <v>0.15322580645161288</v>
+        <f>(G152/0.68)*0.25</f>
+        <v>0.20588235294117649</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>19</v>
@@ -6016,17 +6028,17 @@
         <v>16</v>
       </c>
       <c r="G153" s="2">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="H153" s="2">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J153" s="2">
-        <f>(G153/2.35)*0.25</f>
-        <v>0.13936170212765958</v>
+        <f>(G153/1.76)*0.25</f>
+        <v>0.17613636363636365</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>19</v>
@@ -6052,17 +6064,17 @@
         <v>16</v>
       </c>
       <c r="G154" s="2">
-        <v>0.12</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H154" s="2">
-        <v>0.18</v>
+        <v>0.8</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J154" s="2">
-        <f>(G154/0.68)*0.25</f>
-        <v>4.4117647058823525E-2</v>
+        <f>(G154/1.86)*0.25</f>
+        <v>0.15322580645161288</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>19</v>
@@ -6088,17 +6100,17 @@
         <v>16</v>
       </c>
       <c r="G155" s="2">
-        <v>0.52</v>
+        <v>1.31</v>
       </c>
       <c r="H155" s="2">
-        <v>0.61</v>
+        <v>0.8</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J155" s="2">
-        <f>(G155/1.76)*0.25</f>
-        <v>7.3863636363636367E-2</v>
+        <f>(G155/2.35)*0.25</f>
+        <v>0.13936170212765958</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>19</v>
@@ -6124,17 +6136,17 @@
         <v>16</v>
       </c>
       <c r="G156" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="H156" s="2">
-        <v>0.78</v>
+        <v>0.18</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J156" s="2">
-        <f>(G156/1.86)*0.25</f>
-        <v>7.7956989247311814E-2</v>
+        <f>(G156/0.68)*0.25</f>
+        <v>4.4117647058823525E-2</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>19</v>
@@ -6160,17 +6172,17 @@
         <v>16</v>
       </c>
       <c r="G157" s="2">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="H157" s="2">
-        <v>1.21</v>
+        <v>0.61</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J157" s="2">
-        <f>(G157/2.35)*0.25</f>
-        <v>8.4042553191489358E-2</v>
+        <f>(G157/1.76)*0.25</f>
+        <v>7.3863636363636367E-2</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>19</v>
@@ -6196,17 +6208,17 @@
         <v>16</v>
       </c>
       <c r="G158" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H158" s="2">
-        <v>0.19</v>
+        <v>0.78</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J158" s="2">
         <f>(G158/1.86)*0.25</f>
-        <v>1.8817204301075269E-2</v>
+        <v>7.7956989247311814E-2</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>19</v>
@@ -6232,17 +6244,17 @@
         <v>16</v>
       </c>
       <c r="G159" s="2">
-        <v>0.25</v>
+        <v>0.79</v>
       </c>
       <c r="H159" s="2">
-        <v>0.28000000000000003</v>
+        <v>1.21</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J159" s="2">
         <f>(G159/2.35)*0.25</f>
-        <v>2.6595744680851064E-2</v>
+        <v>8.4042553191489358E-2</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>19</v>
@@ -6262,23 +6274,23 @@
         <v>0</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G160" s="2">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H160" s="2">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J160" s="2">
-        <f>45/180</f>
-        <v>0.25</v>
+        <f>(G160/1.86)*0.25</f>
+        <v>1.8817204301075269E-2</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>19</v>
@@ -6298,22 +6310,23 @@
         <v>0</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G161" s="2">
-        <v>1.1200000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="H161" s="2">
-        <v>0.95</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J161" s="2">
-        <v>0.25</v>
+        <f>(G161/2.35)*0.25</f>
+        <v>2.6595744680851064E-2</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>19</v>
@@ -6339,22 +6352,23 @@
         <v>11</v>
       </c>
       <c r="G162" s="2">
-        <v>2.3199999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="H162" s="2">
-        <v>1.84</v>
+        <v>0.15</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J162" s="2">
+        <f>45/180</f>
         <v>0.25</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>32</v>
       </c>
@@ -6374,10 +6388,10 @@
         <v>11</v>
       </c>
       <c r="G163" s="2">
-        <v>2.64</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H163" s="2">
-        <v>2.36</v>
+        <v>0.95</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>10</v>
@@ -6389,7 +6403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>32</v>
       </c>
@@ -6403,23 +6417,22 @@
         <v>0</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G164" s="2">
-        <v>1.28</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="H164" s="2">
-        <v>0.65</v>
+        <v>1.84</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J164" s="2">
-        <f>(G164/1.55)*0.25</f>
-        <v>0.20645161290322581</v>
+        <v>0.25</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>19</v>
@@ -6439,23 +6452,22 @@
         <v>0</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G165" s="2">
-        <v>1.6</v>
+        <v>2.64</v>
       </c>
       <c r="H165" s="2">
-        <v>1.1100000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J165" s="2">
-        <f>(G165/2.07)*0.25</f>
-        <v>0.19323671497584544</v>
+        <v>0.25</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>19</v>
@@ -6481,17 +6493,17 @@
         <v>7</v>
       </c>
       <c r="G166" s="2">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="H166" s="2">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J166" s="2">
-        <f>(G166/1.99)*0.25</f>
-        <v>0.15829145728643215</v>
+        <f>(G166/1.55)*0.25</f>
+        <v>0.20645161290322581</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>19</v>
@@ -6517,17 +6529,17 @@
         <v>7</v>
       </c>
       <c r="G167" s="2">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H167" s="2">
-        <v>0.96</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J167" s="2">
-        <f>(G167/2.42)*0.25</f>
-        <v>0.16425619834710745</v>
+        <f>(G167/2.07)*0.25</f>
+        <v>0.19323671497584544</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>19</v>
@@ -6553,17 +6565,17 @@
         <v>7</v>
       </c>
       <c r="G168" s="2">
-        <v>0.27</v>
+        <v>1.26</v>
       </c>
       <c r="H168" s="2">
-        <v>0.22</v>
+        <v>0.95</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J168" s="2">
-        <f>(G168/1.55)*0.25</f>
-        <v>4.3548387096774194E-2</v>
+        <f>(G168/1.99)*0.25</f>
+        <v>0.15829145728643215</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>19</v>
@@ -6589,17 +6601,17 @@
         <v>7</v>
       </c>
       <c r="G169" s="2">
-        <v>0.47</v>
+        <v>1.59</v>
       </c>
       <c r="H169" s="2">
-        <v>0.38</v>
+        <v>0.96</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J169" s="2">
-        <f>(G169/2.07)*0.25</f>
-        <v>5.6763285024154592E-2</v>
+        <f>(G169/2.42)*0.25</f>
+        <v>0.16425619834710745</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>19</v>
@@ -6625,17 +6637,17 @@
         <v>7</v>
       </c>
       <c r="G170" s="2">
-        <v>0.73</v>
+        <v>0.27</v>
       </c>
       <c r="H170" s="2">
-        <v>0.7</v>
+        <v>0.22</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J170" s="2">
-        <f>(G170/1.99)*0.25</f>
-        <v>9.1708542713567834E-2</v>
+        <f>(G170/1.55)*0.25</f>
+        <v>4.3548387096774194E-2</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>19</v>
@@ -6661,91 +6673,91 @@
         <v>7</v>
       </c>
       <c r="G171" s="2">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="H171" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J171" s="2">
-        <f>(G171/2.42)*0.25</f>
+        <f>(G171/2.07)*0.25</f>
+        <v>5.6763285024154592E-2</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J172" s="2">
+        <f>(G172/1.99)*0.25</f>
+        <v>9.1708542713567834E-2</v>
+      </c>
+      <c r="K172" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J173" s="2">
+        <f>(G173/2.42)*0.25</f>
         <v>8.5743801652892554E-2</v>
       </c>
-      <c r="K171" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D172" s="4">
-        <v>2</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="H172" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="I172" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J172" s="4">
-        <f>(G172*(21/200)/6)</f>
-        <v>0.112</v>
-      </c>
-      <c r="K172" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D173" s="4">
-        <v>2</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="H173" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J173" s="4">
-        <f>G173*(49/200)/6</f>
-        <v>0.23275000000000001</v>
-      </c>
-      <c r="K173" s="4" t="s">
+      <c r="K173" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6769,17 +6781,17 @@
         <v>15</v>
       </c>
       <c r="G174" s="4">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="H174" s="4">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="I174" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J174" s="4">
-        <f>(G174*(130/200)/6)</f>
-        <v>0.72583333333333344</v>
+        <f>(G174*(21/200)/6)</f>
+        <v>0.112</v>
       </c>
       <c r="K174" s="4" t="s">
         <v>19</v>
@@ -6799,23 +6811,23 @@
         <v>2</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G175" s="4">
-        <v>21.5</v>
+        <v>5.7</v>
       </c>
       <c r="H175" s="4">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="I175" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J175" s="4">
-        <f>(G175*(21/200)/43)</f>
-        <v>5.2499999999999998E-2</v>
+        <f>G175*(49/200)/6</f>
+        <v>0.23275000000000001</v>
       </c>
       <c r="K175" s="4" t="s">
         <v>19</v>
@@ -6835,23 +6847,23 @@
         <v>2</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G176" s="4">
-        <v>38.1</v>
+        <v>6.7</v>
       </c>
       <c r="H176" s="4">
-        <v>5.0999999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="I176" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J176" s="4">
-        <f>G176*(49/200)/43</f>
-        <v>0.21708139534883722</v>
+        <f>(G176*(130/200)/6)</f>
+        <v>0.72583333333333344</v>
       </c>
       <c r="K176" s="4" t="s">
         <v>19</v>
@@ -6877,17 +6889,17 @@
         <v>14</v>
       </c>
       <c r="G177" s="4">
-        <v>48.5</v>
+        <v>21.5</v>
       </c>
       <c r="H177" s="4">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="I177" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J177" s="4">
-        <f>((G177*(130/200))/43)</f>
-        <v>0.73313953488372097</v>
+        <f>(G177*(21/200)/43)</f>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="K177" s="4" t="s">
         <v>19</v>
@@ -6907,23 +6919,23 @@
         <v>2</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G178" s="4">
-        <v>72.099999999999994</v>
+        <v>38.1</v>
       </c>
       <c r="H178" s="4">
-        <v>9.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I178" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J178" s="4">
-        <f>(G178*(21/200)/51)</f>
-        <v>0.14844117647058822</v>
+        <f>G178*(49/200)/43</f>
+        <v>0.21708139534883722</v>
       </c>
       <c r="K178" s="4" t="s">
         <v>19</v>
@@ -6943,23 +6955,23 @@
         <v>2</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G179" s="4">
-        <v>56.2</v>
+        <v>48.5</v>
       </c>
       <c r="H179" s="4">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="I179" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J179" s="4">
-        <f>G179*(49/200)/51</f>
-        <v>0.26998039215686276</v>
+        <f>((G179*(130/200))/43)</f>
+        <v>0.73313953488372097</v>
       </c>
       <c r="K179" s="4" t="s">
         <v>19</v>
@@ -6985,90 +6997,92 @@
         <v>13</v>
       </c>
       <c r="G180" s="4">
-        <v>44.8</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="H180" s="4">
-        <v>2.2000000000000002</v>
+        <v>9.6</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>12</v>
       </c>
       <c r="J180" s="4">
-        <f>(G180*(130/200)/51)</f>
+        <f>(G180*(21/200)/51)</f>
+        <v>0.14844117647058822</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="4">
+        <v>2</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="4">
+        <v>56.2</v>
+      </c>
+      <c r="H181" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J181" s="4">
+        <f>G181*(49/200)/51</f>
+        <v>0.26998039215686276</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="4">
+        <v>2</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="4">
+        <v>44.8</v>
+      </c>
+      <c r="H182" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I182" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J182" s="4">
+        <f>(G182*(130/200)/51)</f>
         <v>0.57098039215686269</v>
       </c>
-      <c r="K180" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D181" s="10">
-        <v>2</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F181" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G181" s="10">
-        <v>38.32</v>
-      </c>
-      <c r="H181" s="10">
-        <v>7.6219999999999999</v>
-      </c>
-      <c r="I181" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J181" s="9">
-        <v>1</v>
-      </c>
-      <c r="K181" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="10">
-        <v>3</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F182" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G182" s="10">
-        <v>20.2</v>
-      </c>
-      <c r="H182" s="10">
-        <v>3.7709999999999999</v>
-      </c>
-      <c r="I182" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J182" s="9">
-        <v>1</v>
-      </c>
-      <c r="K182" s="9" t="s">
-        <v>34</v>
+      <c r="K182" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -7082,7 +7096,7 @@
         <v>25</v>
       </c>
       <c r="D183" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>36</v>
@@ -7091,10 +7105,10 @@
         <v>36</v>
       </c>
       <c r="G183" s="10">
-        <v>11.12</v>
+        <v>38.32</v>
       </c>
       <c r="H183" s="10">
-        <v>1.9259999999999999</v>
+        <v>7.6219999999999999</v>
       </c>
       <c r="I183" s="9" t="s">
         <v>37</v>
@@ -7117,7 +7131,7 @@
         <v>25</v>
       </c>
       <c r="D184" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>36</v>
@@ -7126,10 +7140,10 @@
         <v>36</v>
       </c>
       <c r="G184" s="10">
-        <v>6.41</v>
+        <v>20.2</v>
       </c>
       <c r="H184" s="10">
-        <v>1.018</v>
+        <v>3.7709999999999999</v>
       </c>
       <c r="I184" s="9" t="s">
         <v>37</v>
@@ -7152,7 +7166,7 @@
         <v>25</v>
       </c>
       <c r="D185" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>36</v>
@@ -7161,10 +7175,10 @@
         <v>36</v>
       </c>
       <c r="G185" s="10">
-        <v>3.88</v>
+        <v>11.12</v>
       </c>
       <c r="H185" s="10">
-        <v>0.55800000000000005</v>
+        <v>1.9259999999999999</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>37</v>
@@ -7187,7 +7201,7 @@
         <v>25</v>
       </c>
       <c r="D186" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>36</v>
@@ -7196,10 +7210,10 @@
         <v>36</v>
       </c>
       <c r="G186" s="10">
-        <v>2.4700000000000002</v>
+        <v>6.41</v>
       </c>
       <c r="H186" s="10">
-        <v>0.317</v>
+        <v>1.018</v>
       </c>
       <c r="I186" s="9" t="s">
         <v>37</v>
@@ -7222,7 +7236,7 @@
         <v>25</v>
       </c>
       <c r="D187" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>36</v>
@@ -7231,10 +7245,10 @@
         <v>36</v>
       </c>
       <c r="G187" s="10">
-        <v>1.65</v>
+        <v>3.88</v>
       </c>
       <c r="H187" s="10">
-        <v>0.188</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="I187" s="9" t="s">
         <v>37</v>
@@ -7257,7 +7271,7 @@
         <v>25</v>
       </c>
       <c r="D188" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>36</v>
@@ -7266,10 +7280,10 @@
         <v>36</v>
       </c>
       <c r="G188" s="10">
-        <v>1.1599999999999999</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="H188" s="10">
-        <v>0.11700000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="I188" s="9" t="s">
         <v>37</v>
@@ -7292,7 +7306,7 @@
         <v>25</v>
       </c>
       <c r="D189" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>36</v>
@@ -7301,10 +7315,10 @@
         <v>36</v>
       </c>
       <c r="G189" s="10">
-        <v>0.85</v>
+        <v>1.65</v>
       </c>
       <c r="H189" s="10">
-        <v>7.4999999999999997E-2</v>
+        <v>0.188</v>
       </c>
       <c r="I189" s="9" t="s">
         <v>37</v>
@@ -7327,7 +7341,7 @@
         <v>25</v>
       </c>
       <c r="D190" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>36</v>
@@ -7336,10 +7350,10 @@
         <v>36</v>
       </c>
       <c r="G190" s="10">
-        <v>0.64</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H190" s="10">
-        <v>0.05</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="I190" s="9" t="s">
         <v>37</v>
@@ -7362,7 +7376,7 @@
         <v>25</v>
       </c>
       <c r="D191" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>36</v>
@@ -7371,10 +7385,10 @@
         <v>36</v>
       </c>
       <c r="G191" s="10">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="H191" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I191" s="9" t="s">
         <v>37</v>
@@ -7397,7 +7411,7 @@
         <v>25</v>
       </c>
       <c r="D192" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>36</v>
@@ -7406,10 +7420,10 @@
         <v>36</v>
       </c>
       <c r="G192" s="10">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="H192" s="10">
-        <v>2.5999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I192" s="9" t="s">
         <v>37</v>
@@ -7432,7 +7446,7 @@
         <v>25</v>
       </c>
       <c r="D193" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>36</v>
@@ -7441,10 +7455,10 @@
         <v>36</v>
       </c>
       <c r="G193" s="10">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="H193" s="10">
-        <v>1.9E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I193" s="9" t="s">
         <v>37</v>
@@ -7467,7 +7481,7 @@
         <v>25</v>
       </c>
       <c r="D194" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>36</v>
@@ -7476,10 +7490,10 @@
         <v>36</v>
       </c>
       <c r="G194" s="10">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="H194" s="10">
-        <v>1.47E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I194" s="9" t="s">
         <v>37</v>
@@ -7502,7 +7516,7 @@
         <v>25</v>
       </c>
       <c r="D195" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>36</v>
@@ -7511,10 +7525,10 @@
         <v>36</v>
       </c>
       <c r="G195" s="10">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="H195" s="10">
-        <v>1.2E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I195" s="9" t="s">
         <v>37</v>
@@ -7537,7 +7551,7 @@
         <v>25</v>
       </c>
       <c r="D196" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>36</v>
@@ -7546,10 +7560,10 @@
         <v>36</v>
       </c>
       <c r="G196" s="10">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="H196" s="10">
-        <v>8.9999999999999993E-3</v>
+        <v>1.47E-2</v>
       </c>
       <c r="I196" s="9" t="s">
         <v>37</v>
@@ -7572,7 +7586,7 @@
         <v>25</v>
       </c>
       <c r="D197" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>36</v>
@@ -7581,10 +7595,10 @@
         <v>36</v>
       </c>
       <c r="G197" s="10">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="H197" s="10">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I197" s="9" t="s">
         <v>37</v>
@@ -7607,7 +7621,7 @@
         <v>25</v>
       </c>
       <c r="D198" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>36</v>
@@ -7616,10 +7630,10 @@
         <v>36</v>
       </c>
       <c r="G198" s="10">
-        <v>0.144571373</v>
+        <v>0.2</v>
       </c>
       <c r="H198" s="10">
-        <v>6.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I198" s="9" t="s">
         <v>37</v>
@@ -7642,22 +7656,22 @@
         <v>25</v>
       </c>
       <c r="D199" s="10">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F199" s="9" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G199" s="10">
-        <v>18.38</v>
+        <v>0.17</v>
       </c>
       <c r="H199" s="10">
-        <v>0.53800000000000003</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J199" s="9">
         <v>1</v>
@@ -7677,22 +7691,22 @@
         <v>25</v>
       </c>
       <c r="D200" s="10">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F200" s="9" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G200" s="10">
-        <v>19.690000000000001</v>
+        <v>0.144571373</v>
       </c>
       <c r="H200" s="10">
-        <v>0.28499999999999998</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I200" s="9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J200" s="9">
         <v>1</v>
@@ -7701,7 +7715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>23</v>
       </c>
@@ -7712,7 +7726,7 @@
         <v>25</v>
       </c>
       <c r="D201" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>6</v>
@@ -7721,10 +7735,10 @@
         <v>6</v>
       </c>
       <c r="G201" s="10">
-        <v>20.399999999999999</v>
+        <v>18.38</v>
       </c>
       <c r="H201" s="10">
-        <v>0.157</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="I201" s="9" t="s">
         <v>9</v>
@@ -7736,7 +7750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>23</v>
       </c>
@@ -7747,7 +7761,7 @@
         <v>25</v>
       </c>
       <c r="D202" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>6</v>
@@ -7756,10 +7770,10 @@
         <v>6</v>
       </c>
       <c r="G202" s="10">
-        <v>20.8</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="H202" s="10">
-        <v>9.0999999999999998E-2</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="I202" s="9" t="s">
         <v>9</v>
@@ -7782,7 +7796,7 @@
         <v>25</v>
       </c>
       <c r="D203" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>6</v>
@@ -7791,10 +7805,10 @@
         <v>6</v>
       </c>
       <c r="G203" s="10">
-        <v>21.04</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="H203" s="10">
-        <v>5.5E-2</v>
+        <v>0.157</v>
       </c>
       <c r="I203" s="9" t="s">
         <v>9</v>
@@ -7817,7 +7831,7 @@
         <v>25</v>
       </c>
       <c r="D204" s="10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>6</v>
@@ -7826,10 +7840,10 @@
         <v>6</v>
       </c>
       <c r="G204" s="10">
-        <v>21.18</v>
+        <v>20.8</v>
       </c>
       <c r="H204" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I204" s="9" t="s">
         <v>9</v>
@@ -7852,7 +7866,7 @@
         <v>25</v>
       </c>
       <c r="D205" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>6</v>
@@ -7861,10 +7875,10 @@
         <v>6</v>
       </c>
       <c r="G205" s="10">
-        <v>21.28</v>
+        <v>21.04</v>
       </c>
       <c r="H205" s="10">
-        <v>2.4E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I205" s="9" t="s">
         <v>9</v>
@@ -7887,7 +7901,7 @@
         <v>25</v>
       </c>
       <c r="D206" s="10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>6</v>
@@ -7896,10 +7910,10 @@
         <v>6</v>
       </c>
       <c r="G206" s="10">
-        <v>21.34</v>
+        <v>21.18</v>
       </c>
       <c r="H206" s="10">
-        <v>1.7000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I206" s="9" t="s">
         <v>9</v>
@@ -7922,7 +7936,7 @@
         <v>25</v>
       </c>
       <c r="D207" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>6</v>
@@ -7931,10 +7945,10 @@
         <v>6</v>
       </c>
       <c r="G207" s="10">
-        <v>21.39</v>
+        <v>21.28</v>
       </c>
       <c r="H207" s="10">
-        <v>1.2E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="I207" s="9" t="s">
         <v>9</v>
@@ -7957,7 +7971,7 @@
         <v>25</v>
       </c>
       <c r="D208" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>6</v>
@@ -7966,10 +7980,10 @@
         <v>6</v>
       </c>
       <c r="G208" s="10">
-        <v>21.43</v>
+        <v>21.34</v>
       </c>
       <c r="H208" s="10">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I208" s="9" t="s">
         <v>9</v>
@@ -7992,7 +8006,7 @@
         <v>25</v>
       </c>
       <c r="D209" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>6</v>
@@ -8001,10 +8015,10 @@
         <v>6</v>
       </c>
       <c r="G209" s="10">
-        <v>21.45</v>
+        <v>21.39</v>
       </c>
       <c r="H209" s="10">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I209" s="9" t="s">
         <v>9</v>
@@ -8027,7 +8041,7 @@
         <v>25</v>
       </c>
       <c r="D210" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>6</v>
@@ -8036,10 +8050,10 @@
         <v>6</v>
       </c>
       <c r="G210" s="10">
-        <v>21.47</v>
+        <v>21.43</v>
       </c>
       <c r="H210" s="10">
-        <v>6.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="I210" s="9" t="s">
         <v>9</v>
@@ -8062,7 +8076,7 @@
         <v>25</v>
       </c>
       <c r="D211" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>6</v>
@@ -8071,10 +8085,10 @@
         <v>6</v>
       </c>
       <c r="G211" s="10">
-        <v>21.49</v>
+        <v>21.45</v>
       </c>
       <c r="H211" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I211" s="9" t="s">
         <v>9</v>
@@ -8097,7 +8111,7 @@
         <v>25</v>
       </c>
       <c r="D212" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>6</v>
@@ -8106,10 +8120,10 @@
         <v>6</v>
       </c>
       <c r="G212" s="10">
-        <v>21.51</v>
+        <v>21.47</v>
       </c>
       <c r="H212" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I212" s="9" t="s">
         <v>9</v>
@@ -8132,7 +8146,7 @@
         <v>25</v>
       </c>
       <c r="D213" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>6</v>
@@ -8141,10 +8155,10 @@
         <v>6</v>
       </c>
       <c r="G213" s="10">
-        <v>21.52</v>
+        <v>21.49</v>
       </c>
       <c r="H213" s="10">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I213" s="9" t="s">
         <v>9</v>
@@ -8167,7 +8181,7 @@
         <v>25</v>
       </c>
       <c r="D214" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>6</v>
@@ -8176,10 +8190,10 @@
         <v>6</v>
       </c>
       <c r="G214" s="10">
-        <v>21.53</v>
+        <v>21.51</v>
       </c>
       <c r="H214" s="10">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I214" s="9" t="s">
         <v>9</v>
@@ -8202,7 +8216,7 @@
         <v>25</v>
       </c>
       <c r="D215" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>6</v>
@@ -8211,10 +8225,10 @@
         <v>6</v>
       </c>
       <c r="G215" s="10">
-        <v>21.54</v>
+        <v>21.52</v>
       </c>
       <c r="H215" s="10">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I215" s="9" t="s">
         <v>9</v>
@@ -8237,7 +8251,7 @@
         <v>25</v>
       </c>
       <c r="D216" s="10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>6</v>
@@ -8246,10 +8260,10 @@
         <v>6</v>
       </c>
       <c r="G216" s="10">
-        <v>21.54</v>
+        <v>21.53</v>
       </c>
       <c r="H216" s="10">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I216" s="9" t="s">
         <v>9</v>
@@ -8262,225 +8276,295 @@
       </c>
     </row>
     <row r="217" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B217" s="2" t="s">
+      <c r="A217" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D217" s="2">
+      <c r="C217" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D217" s="10">
+        <v>18</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217" s="10">
+        <v>21.54</v>
+      </c>
+      <c r="H217" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="I217" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J217" s="9">
+        <v>1</v>
+      </c>
+      <c r="K217" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D218" s="10">
+        <v>19</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="10">
+        <v>21.54</v>
+      </c>
+      <c r="H218" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="I218" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J218" s="9">
+        <v>1</v>
+      </c>
+      <c r="K218" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219" s="2">
         <v>2</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E219" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F217" s="2" t="s">
+      <c r="F219" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G217" s="2">
+      <c r="G219" s="2">
         <v>11.37</v>
       </c>
-      <c r="H217" s="2">
+      <c r="H219" s="2">
         <v>0.41</v>
       </c>
-      <c r="I217" s="2" t="s">
+      <c r="I219" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J217" s="2">
+      <c r="J219" s="2">
         <f>(21)/200</f>
         <v>0.105</v>
       </c>
-      <c r="K217" s="2" t="s">
+      <c r="K219" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B218" s="2" t="s">
+    <row r="220" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D218" s="2">
+      <c r="C220" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D220" s="2">
         <v>2</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E220" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F218" s="2" t="s">
+      <c r="F220" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G218" s="2">
+      <c r="G220" s="2">
         <v>11.38</v>
       </c>
-      <c r="H218" s="2">
+      <c r="H220" s="2">
         <v>1.03</v>
       </c>
-      <c r="I218" s="2" t="s">
+      <c r="I220" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J218" s="2">
+      <c r="J220" s="2">
         <f>(70-21)/200</f>
         <v>0.245</v>
       </c>
-      <c r="K218" s="2" t="s">
+      <c r="K220" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B219" s="2" t="s">
+    <row r="221" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D219" s="2">
+      <c r="C221" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D221" s="2">
         <v>2</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E221" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F219" s="2" t="s">
+      <c r="F221" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G219" s="2">
+      <c r="G221" s="2">
         <v>14.04</v>
       </c>
-      <c r="H219" s="2">
+      <c r="H221" s="2">
         <v>1.26</v>
       </c>
-      <c r="I219" s="2" t="s">
+      <c r="I221" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J219" s="2">
+      <c r="J221" s="2">
         <f>(100-70)/200</f>
         <v>0.15</v>
       </c>
-      <c r="K219" s="2" t="s">
+      <c r="K221" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B220" s="2" t="s">
+    <row r="222" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D220" s="2">
+      <c r="C222" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D222" s="2">
         <v>2</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E222" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F220" s="2" t="s">
+      <c r="F222" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G220" s="2">
+      <c r="G222" s="2">
         <v>17.23</v>
       </c>
-      <c r="H220" s="2">
+      <c r="H222" s="2">
         <v>2.0699999999999998</v>
       </c>
-      <c r="I220" s="2" t="s">
+      <c r="I222" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J220" s="2">
+      <c r="J222" s="2">
         <f>(130-100)/200</f>
         <v>0.15</v>
       </c>
-      <c r="K220" s="2" t="s">
+      <c r="K222" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B221" s="2" t="s">
+    <row r="223" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D221" s="2">
+      <c r="C223" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="2">
         <v>2</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F221" s="2" t="s">
+      <c r="F223" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G221" s="2">
+      <c r="G223" s="2">
         <v>15.62</v>
       </c>
-      <c r="H221" s="2">
+      <c r="H223" s="2">
         <v>0.79</v>
       </c>
-      <c r="I221" s="2" t="s">
+      <c r="I223" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J221" s="2">
+      <c r="J223" s="2">
         <f>(160-130)/200</f>
         <v>0.15</v>
       </c>
-      <c r="K221" s="2" t="s">
+      <c r="K223" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B222" s="2" t="s">
+    <row r="224" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D222" s="2">
+      <c r="C224" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D224" s="2">
         <v>2</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E224" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F222" s="2" t="s">
+      <c r="F224" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G222" s="2">
+      <c r="G224" s="2">
         <v>15.26</v>
       </c>
-      <c r="H222" s="2">
+      <c r="H224" s="2">
         <v>1.59</v>
       </c>
-      <c r="I222" s="2" t="s">
+      <c r="I224" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J222" s="2">
+      <c r="J224" s="2">
         <f>(200-160)/200</f>
         <v>0.2</v>
       </c>
-      <c r="K222" s="2" t="s">
+      <c r="K224" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K222">
-    <sortCondition ref="B2:B222"/>
-    <sortCondition ref="A2:A222"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K224">
+    <sortCondition ref="B2:B224"/>
+    <sortCondition ref="A2:A224"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
